--- a/ExportData/Data User1 Test07 -17.xlsx
+++ b/ExportData/Data User1 Test07 -17.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:O4"/>
+  <dimension ref="B3:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,65 +522,497 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2" t="inlineStr">
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>01/02/2021 00:00</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>198.52</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12.702</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2.000</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2.000</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>30.000</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>30.00</t>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10.702</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9.197</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32.100</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>130.000</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:15</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>199.03</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>380.635</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>320.635</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.635</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33.560</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>35.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:30</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>199.54</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>379.838</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>319.838</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19.838</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34.970</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:45</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>200.04</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>379.072</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>319.072</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19.072</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36.320</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 01:00</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>200.55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>378.343</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>318.343</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.448</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37.620</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>299.895</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 01:15</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>201.05</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>380.108</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>320.108</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21.007</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39.110</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>299.101</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 01:30</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>380.099</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>320.099</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20.099</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40.540</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>45.65</t>
         </is>
       </c>
     </row>
@@ -595,7 +1027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:O4"/>
+  <dimension ref="B3:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,65 +1123,497 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2" t="inlineStr">
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>01/02/2021 00:00</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>30.00</t>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>198.52</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1.377</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0.217</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32.10</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1.083</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:15</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>199.03</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.172</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>35.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:30</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>199.54</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3.166</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:45</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>200.04</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3.159</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 01:00</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>200.55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.153</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 01:15</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>201.05</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3.167</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2.492</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 01:30</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3.168</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40.54</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>45.65</t>
         </is>
       </c>
     </row>

--- a/ExportData/Data User1 Test07 -17.xlsx
+++ b/ExportData/Data User1 Test07 -17.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:O12"/>
+  <dimension ref="B3:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,20 +522,164 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>210.74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30.000</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:15</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>211.19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>349.389</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>289.389</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19.644</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31.340</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>269.745</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:00</t>
+          <t>01/02/2021 00:30</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>198.52</t>
+          <t>211.70</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -545,7 +689,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12.702</t>
+          <t>381.046</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -555,7 +699,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>60.000</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -570,39 +714,39 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10.702</t>
+          <t>321.046</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9.197</t>
+          <t>21.046</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32.100</t>
+          <t>32.830</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>130.000</t>
+          <t>300.000</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32.90</t>
+          <t>33.96</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:15</t>
+          <t>01/02/2021 00:45</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>199.03</t>
+          <t>212.20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -617,7 +761,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>380.635</t>
+          <t>380.234</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -642,17 +786,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>320.635</t>
+          <t>320.234</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20.635</t>
+          <t>20.234</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33.560</t>
+          <t>34.270</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -662,19 +806,19 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>35.03</t>
+          <t>36.09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:30</t>
+          <t>01/02/2021 01:00</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>199.54</t>
+          <t>212.71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -689,7 +833,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>379.838</t>
+          <t>379.457</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -714,39 +858,39 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>319.838</t>
+          <t>319.457</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19.838</t>
+          <t>19.571</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34.970</t>
+          <t>35.650</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>300.000</t>
+          <t>299.886</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>38.21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:45</t>
+          <t>01/02/2021 01:15</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>200.04</t>
+          <t>213.22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -761,7 +905,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>379.072</t>
+          <t>381.393</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -786,39 +930,39 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>319.072</t>
+          <t>321.393</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19.072</t>
+          <t>22.286</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36.320</t>
+          <t>37.230</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>300.000</t>
+          <t>299.106</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>39.28</t>
+          <t>40.33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 01:00</t>
+          <t>01/02/2021 01:30</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>200.55</t>
+          <t>213.73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -833,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>378.343</t>
+          <t>381.322</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,39 +1002,39 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>318.343</t>
+          <t>321.322</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18.448</t>
+          <t>21.322</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37.620</t>
+          <t>38.740</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>299.895</t>
+          <t>300.000</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>42.46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 01:15</t>
+          <t>01/02/2021 01:45</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>201.05</t>
+          <t>214.23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -905,7 +1049,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>380.108</t>
+          <t>380.338</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -930,34 +1074,44 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>320.108</t>
+          <t>320.338</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21.007</t>
+          <t>20.338</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39.110</t>
+          <t>40.180</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>299.101</t>
+          <t>300.000</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>44.58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 01:30</t>
+          <t>01/02/2021 02:00</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>214.74</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -967,7 +1121,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>380.099</t>
+          <t>379.404</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -992,27 +1146,881 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>320.099</t>
+          <t>319.404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20.099</t>
+          <t>19.546</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>40.540</t>
+          <t>41.560</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>299.858</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 02:15</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>215.25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>381.801</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>321.801</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22.908</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.190</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>298.893</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>48.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 02:30</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>215.76</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>381.677</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>321.677</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21.677</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44.720</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>300.000</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>45.65</t>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 02:45</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>216.26</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>380.433</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>320.433</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20.433</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46.170</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>216.77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>379.268</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>319.268</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19.453</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>47.540</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>299.815</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:15</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>217.28</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>382.414</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>322.414</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>23.855</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>49.230</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>298.559</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:30</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>217.79</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>382.158</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>322.158</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22.158</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>50.810</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:45</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>218.30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>380.479</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>320.479</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>20.479</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52.260</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>61.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:00</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>218.80</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>378.936</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>318.936</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>19.206</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>53.610</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>299.730</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>63.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:15</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>219.31</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>383.465</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>323.465</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25.551</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>55.420</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>297.913</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>65.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:30</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>219.82</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>382.870</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>322.870</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>22.870</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>57.050</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>67.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:45</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>220.33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>380.318</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>320.318</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20.318</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>58.490</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>70.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 05:00</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>378.065</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>60.000</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>318.065</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18.563</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>59.780</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>299.502</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>72.17</t>
         </is>
       </c>
     </row>
@@ -1027,7 +2035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:O12"/>
+  <dimension ref="B3:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,20 +2131,164 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>210.74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 00:15</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>211.19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2.822</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2.165</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:00</t>
+          <t>01/02/2021 00:30</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>198.52</t>
+          <t>211.70</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1146,7 +2298,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1.377</t>
+          <t>3.176</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1156,7 +2308,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0.217</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1171,39 +2323,39 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32.10</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1.083</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32.90</t>
+          <t>33.96</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:15</t>
+          <t>01/02/2021 00:45</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>199.03</t>
+          <t>212.20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -1218,7 +2370,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3.172</t>
+          <t>3.169</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1253,7 +2405,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33.56</t>
+          <t>34.27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1263,19 +2415,19 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>35.03</t>
+          <t>36.09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:30</t>
+          <t>01/02/2021 01:00</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>199.54</t>
+          <t>212.71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1290,7 +2442,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3.166</t>
+          <t>3.162</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1315,17 +2467,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1335,19 +2487,19 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>38.21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 00:45</t>
+          <t>01/02/2021 01:15</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>200.04</t>
+          <t>213.22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1362,7 +2514,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3.159</t>
+          <t>3.178</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1387,39 +2539,39 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36.32</t>
+          <t>37.23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>2.492</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>39.28</t>
+          <t>40.33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 01:00</t>
+          <t>01/02/2021 01:30</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>200.55</t>
+          <t>213.73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1434,7 +2586,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3.153</t>
+          <t>3.178</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1459,17 +2611,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>38.74</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1479,19 +2631,19 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>42.46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 01:15</t>
+          <t>01/02/2021 01:45</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>201.05</t>
+          <t>214.23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1506,7 +2658,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3.167</t>
+          <t>3.170</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1541,24 +2693,34 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39.11</t>
+          <t>40.18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2.492</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>44.58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>01/02/2021 01:30</t>
+          <t>01/02/2021 02:00</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>214.74</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1568,7 +2730,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3.168</t>
+          <t>3.162</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1593,27 +2755,881 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 02:15</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>215.25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.181</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2.490</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>48.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 02:30</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>215.76</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3.181</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 02:45</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>216.26</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3.171</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>40.54</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>2.500</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>45.65</t>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>216.77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.161</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:15</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>217.28</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3.186</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>49.23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2.486</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:30</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>217.79</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3.185</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 03:45</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>218.30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.171</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52.26</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>61.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:00</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>218.80</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3.158</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>63.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:15</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>219.31</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3.194</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>55.42</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2.480</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>65.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:30</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>219.82</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3.191</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>57.05</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>67.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 04:45</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>220.33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3.170</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>70.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2021 05:00</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3.151</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>72.17</t>
         </is>
       </c>
     </row>
